--- a/outputs-r202/f__Ruminococcaceae.xlsx
+++ b/outputs-r202/f__Ruminococcaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU8"/>
+  <dimension ref="A1:BV8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,6 +800,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1025,6 +1030,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1250,6 +1260,11 @@
           <t>g__Ruminococcus_C</t>
         </is>
       </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_C(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1475,6 +1490,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1700,6 +1720,11 @@
           <t>g__Ruminococcus</t>
         </is>
       </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1925,6 +1950,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2150,6 +2180,11 @@
           <t>g__Ruminococcus_D</t>
         </is>
       </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2373,6 +2408,11 @@
       <c r="BU8" t="inlineStr">
         <is>
           <t>g__Ruminococcus_C</t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_C(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/f__Ruminococcaceae.xlsx
+++ b/outputs-r202/f__Ruminococcaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV8"/>
+  <dimension ref="A1:BV10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -809,451 +809,451 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG060.fasta</t>
+          <t>RUG007.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.447627208090709e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>3.607520128495776e-08</v>
+        <v>2.274320945438127e-09</v>
       </c>
       <c r="D2" t="n">
-        <v>3.918817531810844e-09</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01598906077685895</v>
+        <v>7.055341224925391e-12</v>
       </c>
       <c r="H2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>4.341608621504585e-05</v>
+        <v>9.224278841537298e-08</v>
       </c>
       <c r="J2" t="n">
-        <v>3.417403273844308e-09</v>
+        <v>8.272745734433527e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>1.447627208090718e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>1.447627208090718e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>9.79281494099762e-11</v>
+        <v>3.594443675016495e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>1.476797610403057e-07</v>
+        <v>8.272721558331058e-09</v>
       </c>
       <c r="O2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="R2" t="n">
-        <v>1.447627208090718e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>2.499572932830644e-06</v>
+        <v>2.335699051184178e-11</v>
       </c>
       <c r="T2" t="n">
-        <v>1.447627208090714e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="U2" t="n">
-        <v>1.447627208090714e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="V2" t="n">
-        <v>1.447627208090714e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>1.447627208090714e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>1.447627208090714e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.447627208090714e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.447627208093434e-13</v>
+        <v>1.216194753678941e-13</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.447627208090714e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.447627208090714e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.447627208090714e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.447627208090714e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.447627208090714e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.447627208090714e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.447627208090714e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.447627208090714e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.355006085768793e-09</v>
+        <v>0.9661524958132761</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.01132244540004084</v>
+        <v>0.0009378152912728726</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9726390903143762</v>
+        <v>0.03290655297463897</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.447627208090718e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.211067840845364e-06</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7.782196727410431e-07</v>
+        <v>2.319195784535996e-07</v>
       </c>
       <c r="AR2" t="n">
-        <v>3.991467472784983e-08</v>
+        <v>1.584593298773909e-09</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.447627208090718e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.447627208090718e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.447627208090718e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="AV2" t="n">
-        <v>2.288461215266352e-07</v>
+        <v>2.440150183362266e-06</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.447627208090718e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.447627208090718e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.447627208090718e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.447627208090718e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.447627208090718e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.447627208090718e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.447627208090718e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="BD2" t="n">
-        <v>3.724933296101587e-08</v>
+        <v>4.206146275474863e-13</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.447627208090713e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.447627208090714e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.447627208090714e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.447627208090714e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.447627208090714e-13</v>
+        <v>2.220264176995575e-14</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.9726390903143762</v>
+        <v>0.9661524958132761</v>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>g__Ruminococcus_D</t>
+          <t>g__Ruminococcus</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>g__Ruminococcus_D</t>
+          <t>g__Ruminococcus</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG171.fasta</t>
+          <t>RUG060.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.168782205882927e-11</v>
+        <v>1.447627208090709e-13</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001221302222635969</v>
+        <v>3.607520128495776e-08</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0071490637781432</v>
+        <v>3.918817531810844e-09</v>
       </c>
       <c r="E3" t="n">
-        <v>1.168782205882927e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="F3" t="n">
-        <v>1.168782205882929e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>1.305018457372607e-06</v>
+        <v>0.01598906077685895</v>
       </c>
       <c r="H3" t="n">
-        <v>1.168782205882927e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>9.308106164384872e-05</v>
+        <v>4.341608621504585e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>6.089061766918675e-07</v>
+        <v>3.417403273844308e-09</v>
       </c>
       <c r="K3" t="n">
-        <v>1.168782205882928e-11</v>
+        <v>1.447627208090718e-13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.168782205882928e-11</v>
+        <v>1.447627208090718e-13</v>
       </c>
       <c r="M3" t="n">
-        <v>1.77759097516059e-08</v>
+        <v>9.79281494099762e-11</v>
       </c>
       <c r="N3" t="n">
-        <v>7.923834982012899e-07</v>
+        <v>1.476797610403057e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>1.168782205882929e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>1.168782205882929e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.168782205882929e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="R3" t="n">
-        <v>1.168782205882929e-11</v>
+        <v>1.447627208090718e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.360203092570308e-05</v>
+        <v>2.499572932830644e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>1.168782205882928e-11</v>
+        <v>1.447627208090714e-13</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2356426580676554</v>
+        <v>1.447627208090714e-13</v>
       </c>
       <c r="V3" t="n">
-        <v>1.168782205882928e-11</v>
+        <v>1.447627208090714e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>1.168782205882928e-11</v>
+        <v>1.447627208090714e-13</v>
       </c>
       <c r="X3" t="n">
-        <v>1.168782205882928e-11</v>
+        <v>1.447627208090714e-13</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.168782205882928e-11</v>
+        <v>1.447627208090714e-13</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.168782205882928e-11</v>
+        <v>1.447627208093434e-13</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.168782205882928e-11</v>
+        <v>1.447627208090714e-13</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.168782205882928e-11</v>
+        <v>1.447627208090714e-13</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.168782205882928e-11</v>
+        <v>1.447627208090714e-13</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.168782205882928e-11</v>
+        <v>1.447627208090714e-13</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.168782205882928e-11</v>
+        <v>1.447627208090714e-13</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.168782205882928e-11</v>
+        <v>1.447627208090714e-13</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.168782205882928e-11</v>
+        <v>1.447627208090714e-13</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.168782205882928e-11</v>
+        <v>1.447627208090714e-13</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.16878220588293e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.16878220588293e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.32178565131748e-05</v>
+        <v>1.355006085768793e-09</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.2916026085954362</v>
+        <v>0.01132244540004084</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.2922075168166875</v>
+        <v>0.9726390903143762</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.168782205882928e-11</v>
+        <v>1.447627208090718e-13</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.239771516156263e-10</v>
+        <v>2.211067840845364e-06</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.168782205882928e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.144962065264939</v>
+        <v>7.782196727410431e-07</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.575653785594853e-10</v>
+        <v>3.991467472784983e-08</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090718e-13</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090718e-13</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090718e-13</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.001350504817500007</v>
+        <v>2.288461215266352e-07</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090718e-13</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090718e-13</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090718e-13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090718e-13</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090718e-13</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090718e-13</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090718e-13</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.02572165420288224</v>
+        <v>3.724933296101587e-08</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="BK3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="BL3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="BM3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="BN3" t="n">
-        <v>1.168782205882931e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="BO3" t="n">
-        <v>1.168782205882926e-11</v>
+        <v>1.447627208090713e-13</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.168782205882926e-11</v>
+        <v>1.447627208090714e-13</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.168782205882926e-11</v>
+        <v>1.447627208090714e-13</v>
       </c>
       <c r="BR3" t="n">
-        <v>1.168782205882926e-11</v>
+        <v>1.447627208090714e-13</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.168782205882926e-11</v>
+        <v>1.447627208090714e-13</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.2922075168166875</v>
+        <v>0.9726390903143762</v>
       </c>
       <c r="BU3" t="inlineStr">
         <is>
@@ -1262,688 +1262,688 @@
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>g__Ruminococcus_D(reject)</t>
+          <t>g__Ruminococcus_D</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG364.fasta</t>
+          <t>RUG127.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.947043331741209e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>1.427442422563606e-07</v>
+        <v>4.180362428122208e-09</v>
       </c>
       <c r="D4" t="n">
-        <v>6.386769815344526e-07</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>3.947043331741209e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>3.947043331741218e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>9.307026428517599e-05</v>
+        <v>2.648324822575598e-12</v>
       </c>
       <c r="H4" t="n">
-        <v>3.947043331741209e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>2.153918363481636e-05</v>
+        <v>7.528610997085613e-08</v>
       </c>
       <c r="J4" t="n">
-        <v>3.548143941727412e-10</v>
+        <v>1.871103145427524e-13</v>
       </c>
       <c r="K4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="L4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="M4" t="n">
-        <v>1.703017110884364e-07</v>
+        <v>3.174279593267639e-08</v>
       </c>
       <c r="N4" t="n">
-        <v>8.212604261259174e-07</v>
+        <v>7.355822063234287e-08</v>
       </c>
       <c r="O4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="P4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="R4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>7.222034062448455e-05</v>
+        <v>2.623342302726038e-11</v>
       </c>
       <c r="T4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="U4" t="n">
-        <v>3.947043331741234e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="V4" t="n">
-        <v>3.947043331741234e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>3.947043331741234e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>3.947043331741234e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.947043331741233e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0002712919282937249</v>
+        <v>6.184092291298402e-12</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.947043331741233e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.947043331741234e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.947043331741234e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.947043331741234e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="AE4" t="n">
-        <v>3.947043331741234e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.947043331741234e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="AG4" t="n">
-        <v>3.947043331741234e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="AH4" t="n">
-        <v>3.947043331741234e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="AI4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="AK4" t="n">
-        <v>5.978166640360883e-10</v>
+        <v>0.9904548964306916</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.009518486329666327</v>
+        <v>0.005423111181133112</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.9749850260734401</v>
+        <v>0.004121240064935969</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.947043331741242e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.588304435692389e-09</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>8.890829945461476e-07</v>
+        <v>3.542246397888388e-07</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.469107395217999e-09</v>
+        <v>4.004940151450068e-09</v>
       </c>
       <c r="AS4" t="n">
-        <v>3.947043331741242e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.947043331741242e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="AU4" t="n">
-        <v>3.947043331741252e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.01503567181390892</v>
+        <v>2.092887069900034e-07</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.947043331741252e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="AX4" t="n">
-        <v>3.947043331741242e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="AY4" t="n">
-        <v>3.947043331741242e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3.947043331741242e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="BA4" t="n">
-        <v>3.947043331741242e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="BB4" t="n">
-        <v>3.947043331741242e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="BC4" t="n">
-        <v>3.947043331741242e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="BD4" t="n">
-        <v>2.198765761751566e-08</v>
+        <v>9.892496921086803e-13</v>
       </c>
       <c r="BE4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="BF4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="BG4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="BH4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="BI4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="BJ4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="BK4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="BL4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="BM4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="BN4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="BO4" t="n">
-        <v>3.947043331741232e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="BP4" t="n">
-        <v>3.947043331741185e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3.947043331741185e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="BR4" t="n">
-        <v>3.947043331741185e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="BS4" t="n">
-        <v>3.947043331741185e-14</v>
+        <v>2.220254211290621e-14</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.9749850260734401</v>
+        <v>0.9904548964306916</v>
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>g__Ruminococcus_D</t>
+          <t>g__Ruminococcus</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>g__Ruminococcus_D</t>
+          <t>g__Ruminococcus</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG393.fasta</t>
+          <t>RUG171.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882927e-11</v>
       </c>
       <c r="C5" t="n">
-        <v>1.289737784641323e-09</v>
+        <v>0.001221302222635969</v>
       </c>
       <c r="D5" t="n">
-        <v>5.764883122310615e-14</v>
+        <v>0.0071490637781432</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882927e-11</v>
       </c>
       <c r="F5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882929e-11</v>
       </c>
       <c r="G5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.305018457372607e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882927e-11</v>
       </c>
       <c r="I5" t="n">
-        <v>2.28690541579808e-08</v>
+        <v>9.308106164384872e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>6.089061766918675e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882928e-11</v>
       </c>
       <c r="L5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882928e-11</v>
       </c>
       <c r="M5" t="n">
-        <v>9.675565544465318e-08</v>
+        <v>1.77759097516059e-08</v>
       </c>
       <c r="N5" t="n">
-        <v>4.448363508778047e-09</v>
+        <v>7.923834982012899e-07</v>
       </c>
       <c r="O5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882929e-11</v>
       </c>
       <c r="P5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882929e-11</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882929e-11</v>
       </c>
       <c r="R5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882929e-11</v>
       </c>
       <c r="S5" t="n">
-        <v>7.364383062511008e-12</v>
+        <v>1.360203092570308e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882928e-11</v>
       </c>
       <c r="U5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>0.2356426580676554</v>
       </c>
       <c r="V5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882928e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882928e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882928e-11</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882928e-11</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882928e-11</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882928e-11</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882928e-11</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882928e-11</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882928e-11</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882928e-11</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882928e-11</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882928e-11</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882928e-11</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.16878220588293e-11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.16878220588293e-11</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.840741983991529</v>
+        <v>3.32178565131748e-05</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0009305842150462211</v>
+        <v>0.2916026085954362</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.158326864635988</v>
+        <v>0.2922075168166875</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882928e-11</v>
       </c>
       <c r="AO5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>3.239771516156263e-10</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882928e-11</v>
       </c>
       <c r="AQ5" t="n">
-        <v>3.453666511487846e-07</v>
+        <v>0.144962065264939</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.273485926124968e-10</v>
+        <v>2.575653785594853e-10</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="AU5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="AV5" t="n">
-        <v>9.619149324054185e-08</v>
+        <v>0.001350504817500007</v>
       </c>
       <c r="AW5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="AX5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="AY5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BA5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BB5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BC5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BD5" t="n">
-        <v>4.452999818707092e-13</v>
+        <v>0.02572165420288224</v>
       </c>
       <c r="BE5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BF5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BG5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BH5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BI5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BJ5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BK5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BL5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BM5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BN5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882931e-11</v>
       </c>
       <c r="BO5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882926e-11</v>
       </c>
       <c r="BP5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882926e-11</v>
       </c>
       <c r="BQ5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882926e-11</v>
       </c>
       <c r="BR5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882926e-11</v>
       </c>
       <c r="BS5" t="n">
-        <v>2.220155615427827e-14</v>
+        <v>1.168782205882926e-11</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.840741983991529</v>
+        <v>0.2922075168166875</v>
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>g__Ruminococcus</t>
+          <t>g__Ruminococcus_D</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>g__Ruminococcus</t>
+          <t>g__Ruminococcus_D(reject)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG460.fasta</t>
+          <t>RUG364.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.466321120780284e-14</v>
+        <v>3.947043331741209e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>1.71634898893231e-07</v>
+        <v>1.427442422563606e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>5.423626323275973e-07</v>
+        <v>6.386769815344526e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>5.466321120780293e-14</v>
+        <v>3.947043331741209e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>5.466321120780293e-14</v>
+        <v>3.947043331741218e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001542024126142438</v>
+        <v>9.307026428517599e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>5.466321120780274e-14</v>
+        <v>3.947043331741209e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>3.655147357948922e-05</v>
+        <v>2.153918363481636e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>2.741060477324999e-10</v>
+        <v>3.548143941727412e-10</v>
       </c>
       <c r="K6" t="n">
-        <v>5.466321120780295e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="L6" t="n">
-        <v>5.466321120780295e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06259746751841e-07</v>
+        <v>1.703017110884364e-07</v>
       </c>
       <c r="N6" t="n">
-        <v>1.36748697234444e-06</v>
+        <v>8.212604261259174e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>5.466321120780306e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>5.466321120780306e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.466321120780306e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="R6" t="n">
-        <v>5.466321120780306e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="S6" t="n">
-        <v>9.891517035275591e-05</v>
+        <v>7.222034062448455e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>5.466321120780284e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="U6" t="n">
-        <v>5.466321120780284e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="V6" t="n">
-        <v>5.466321120780284e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="W6" t="n">
-        <v>5.466321120780284e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>5.466321120780284e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.466321120780284e-14</v>
+        <v>3.947043331741233e-14</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0001253320646883675</v>
+        <v>0.0002712919282937249</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.466321120780284e-14</v>
+        <v>3.947043331741233e-14</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.466321120780284e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.466321120780284e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.466321120780284e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="AE6" t="n">
-        <v>5.466321120780284e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.466321120780284e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="AG6" t="n">
-        <v>5.466321120780284e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.466321120780284e-14</v>
+        <v>3.947043331741234e-14</v>
       </c>
       <c r="AI6" t="n">
-        <v>5.466321120780296e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.466321120780304e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.823451587075683e-09</v>
+        <v>5.978166640360883e-10</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.01492786637888779</v>
+        <v>0.009518486329666327</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.9757095063176433</v>
+        <v>0.9749850260734401</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.46632112078031e-14</v>
+        <v>3.947043331741242e-14</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.943646269836355e-09</v>
+        <v>7.588304435692389e-09</v>
       </c>
       <c r="AP6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8.845098974477275e-07</v>
+        <v>8.890829945461476e-07</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.837157260349364e-09</v>
+        <v>1.469107395217999e-09</v>
       </c>
       <c r="AS6" t="n">
-        <v>5.46632112078031e-14</v>
+        <v>3.947043331741242e-14</v>
       </c>
       <c r="AT6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741242e-14</v>
       </c>
       <c r="AU6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741252e-14</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.008944523132613746</v>
+        <v>0.01503567181390892</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741252e-14</v>
       </c>
       <c r="AX6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741242e-14</v>
       </c>
       <c r="AY6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741242e-14</v>
       </c>
       <c r="AZ6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741242e-14</v>
       </c>
       <c r="BA6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741242e-14</v>
       </c>
       <c r="BB6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741242e-14</v>
       </c>
       <c r="BC6" t="n">
-        <v>5.46632112078031e-14</v>
+        <v>3.947043331741242e-14</v>
       </c>
       <c r="BD6" t="n">
-        <v>2.191421521962389e-08</v>
+        <v>2.198765761751566e-08</v>
       </c>
       <c r="BE6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="BF6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="BG6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="BH6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="BI6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="BJ6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="BK6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="BL6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="BM6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="BN6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="BO6" t="n">
-        <v>5.466321120780298e-14</v>
+        <v>3.947043331741232e-14</v>
       </c>
       <c r="BP6" t="n">
-        <v>5.466321120780262e-14</v>
+        <v>3.947043331741185e-14</v>
       </c>
       <c r="BQ6" t="n">
-        <v>5.466321120780262e-14</v>
+        <v>3.947043331741185e-14</v>
       </c>
       <c r="BR6" t="n">
-        <v>5.466321120780262e-14</v>
+        <v>3.947043331741185e-14</v>
       </c>
       <c r="BS6" t="n">
-        <v>5.466321120780262e-14</v>
+        <v>3.947043331741185e-14</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.9757095063176433</v>
+        <v>0.9749850260734401</v>
       </c>
       <c r="BU6" t="inlineStr">
         <is>
@@ -1959,458 +1959,918 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG604.fasta</t>
+          <t>RUG393.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.687837292057495e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>1.649929306906609e-07</v>
+        <v>1.289737784641323e-09</v>
       </c>
       <c r="D7" t="n">
-        <v>5.09937984585855e-07</v>
+        <v>5.764883122310615e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>3.687837292057497e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>3.687837292057495e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>7.48313521336054e-05</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>3.687837292057505e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>1.674191485330086e-05</v>
+        <v>2.28690541579808e-08</v>
       </c>
       <c r="J7" t="n">
-        <v>3.168838222533002e-10</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="L7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="M7" t="n">
-        <v>2.657394565844265e-07</v>
+        <v>9.675565544465318e-08</v>
       </c>
       <c r="N7" t="n">
-        <v>6.345382341630479e-07</v>
+        <v>4.448363508778047e-09</v>
       </c>
       <c r="O7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="P7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="R7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="S7" t="n">
-        <v>6.788502152013342e-05</v>
+        <v>7.364383062511008e-12</v>
       </c>
       <c r="T7" t="n">
-        <v>3.687837292057515e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="U7" t="n">
-        <v>3.687837292057515e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="V7" t="n">
-        <v>3.687837292057515e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>3.687837292057515e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>3.687837292057515e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.687837292057515e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0003433811263088638</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AB7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AE7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AG7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AH7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.687837292057505e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3.687837292057515e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AK7" t="n">
-        <v>4.717903025497169e-10</v>
+        <v>0.840741983991529</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.007568969672962865</v>
+        <v>0.0009305842150462211</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.9713369987668882</v>
+        <v>0.158326864635988</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.687837292057515e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.824566077588887e-08</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AP7" t="n">
-        <v>3.687837292057517e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.122607713492168e-06</v>
+        <v>3.453666511487846e-07</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.078189393897385e-09</v>
+        <v>2.273485926124968e-10</v>
       </c>
       <c r="AS7" t="n">
-        <v>3.687837292057517e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AU7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.02058845307684476</v>
+        <v>9.619149324054185e-08</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AX7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AY7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="BA7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="BB7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="BC7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="BD7" t="n">
-        <v>2.11376901877981e-08</v>
+        <v>4.452999818707092e-13</v>
       </c>
       <c r="BE7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="BF7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="BG7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="BH7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="BI7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="BJ7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="BK7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="BL7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="BM7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="BN7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="BO7" t="n">
-        <v>3.687837292057507e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="BP7" t="n">
-        <v>3.687837292057521e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="BQ7" t="n">
-        <v>3.687837292057521e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="BR7" t="n">
-        <v>3.687837292057521e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="BS7" t="n">
-        <v>3.687837292057521e-14</v>
+        <v>2.220155615427827e-14</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.9713369987668882</v>
+        <v>0.840741983991529</v>
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>g__Ruminococcus_D</t>
+          <t>g__Ruminococcus</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>g__Ruminococcus_D</t>
+          <t>g__Ruminococcus</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>RUG460.fasta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.466321120780284e-14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.71634898893231e-07</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.423626323275973e-07</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.466321120780293e-14</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.466321120780293e-14</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0001542024126142438</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.466321120780274e-14</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.655147357948922e-05</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.741060477324999e-10</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.466321120780295e-14</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.466321120780295e-14</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06259746751841e-07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.36748697234444e-06</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.466321120780306e-14</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5.466321120780306e-14</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5.466321120780306e-14</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.466321120780306e-14</v>
+      </c>
+      <c r="S8" t="n">
+        <v>9.891517035275591e-05</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5.466321120780284e-14</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5.466321120780284e-14</v>
+      </c>
+      <c r="V8" t="n">
+        <v>5.466321120780284e-14</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.466321120780284e-14</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5.466321120780284e-14</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>5.466321120780284e-14</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.0001253320646883675</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>5.466321120780284e-14</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>5.466321120780284e-14</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>5.466321120780284e-14</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>5.466321120780284e-14</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5.466321120780284e-14</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>5.466321120780284e-14</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>5.466321120780284e-14</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>5.466321120780284e-14</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>5.466321120780296e-14</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>5.466321120780304e-14</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1.823451587075683e-09</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.01492786637888779</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.9757095063176433</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.46632112078031e-14</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>3.943646269836355e-09</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>8.845098974477275e-07</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>2.837157260349364e-09</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>5.46632112078031e-14</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.008944523132613746</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>5.46632112078031e-14</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>2.191421521962389e-08</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>5.466321120780298e-14</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>5.466321120780262e-14</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>5.466321120780262e-14</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>5.466321120780262e-14</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>5.466321120780262e-14</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0.9757095063176433</v>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG604.fasta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.687837292057495e-14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.649929306906609e-07</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.09937984585855e-07</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.687837292057497e-14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.687837292057495e-14</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.48313521336054e-05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.687837292057505e-14</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.674191485330086e-05</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.168838222533002e-10</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.657394565844265e-07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.345382341630479e-07</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.788502152013342e-05</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.687837292057515e-14</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3.687837292057515e-14</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.687837292057515e-14</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3.687837292057515e-14</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.687837292057515e-14</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3.687837292057515e-14</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.0003433811263088638</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>3.687837292057505e-14</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>3.687837292057515e-14</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>4.717903025497169e-10</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.007568969672962865</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.9713369987668882</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.687837292057515e-14</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.824566077588887e-08</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>3.687837292057517e-14</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1.122607713492168e-06</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>1.078189393897385e-09</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>3.687837292057517e-14</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.02058845307684476</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>2.11376901877981e-08</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>3.687837292057507e-14</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>3.687837292057521e-14</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>3.687837292057521e-14</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>3.687837292057521e-14</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>3.687837292057521e-14</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0.9713369987668882</v>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t>g__Ruminococcus_D</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>hRUG862.fasta</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B10" t="n">
         <v>0.01420719769919071</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C10" t="n">
         <v>0.01420720069786099</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D10" t="n">
         <v>0.01420764943813734</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E10" t="n">
         <v>0.01420719769919071</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F10" t="n">
         <v>0.01420719769919071</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G10" t="n">
         <v>0.01420721594879702</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H10" t="n">
         <v>0.01420719769919063</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I10" t="n">
         <v>0.0142072112707416</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J10" t="n">
         <v>0.01420731040584154</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K10" t="n">
         <v>0.01420719769919069</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L10" t="n">
         <v>0.01420719769919069</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M10" t="n">
         <v>0.01420719775210619</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N10" t="n">
         <v>0.01420719925057656</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O10" t="n">
         <v>0.01420719769919062</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P10" t="n">
         <v>0.01420719769919062</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q10" t="n">
         <v>0.01420719769919062</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R10" t="n">
         <v>0.01420719769919065</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S10" t="n">
         <v>0.01420719869468661</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T10" t="n">
         <v>0.01420719769919069</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U10" t="n">
         <v>0.01420719769919069</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V10" t="n">
         <v>0.01420719769919069</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W10" t="n">
         <v>0.01420719769919069</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X10" t="n">
         <v>0.01420719769919069</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y10" t="n">
         <v>0.01420719769919069</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z10" t="n">
         <v>0.01420719769919069</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA10" t="n">
         <v>0.01420719769919069</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB10" t="n">
         <v>0.01420719769919069</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC10" t="n">
         <v>0.01420719769919069</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD10" t="n">
         <v>0.01420719769919069</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE10" t="n">
         <v>0.01420719769919069</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF10" t="n">
         <v>0.01420719769919069</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG10" t="n">
         <v>0.01420719769919069</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH10" t="n">
         <v>0.01420719769919069</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI10" t="n">
         <v>0.01420719769919072</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ10" t="n">
         <v>0.01420719769919072</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK10" t="n">
         <v>0.01420743119619872</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL10" t="n">
         <v>0.01877694103074637</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM10" t="n">
         <v>0.01512469857725537</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN10" t="n">
         <v>0.0142071976991907</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO10" t="n">
         <v>0.01420719822513058</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP10" t="n">
         <v>0.01420719769919073</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ10" t="n">
         <v>0.01421501656817564</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR10" t="n">
         <v>0.01420719770358243</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS10" t="n">
         <v>0.01420719769919071</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT10" t="n">
         <v>0.01420719769919071</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU10" t="n">
         <v>0.01420719769919072</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV10" t="n">
         <v>0.01420719867099644</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW10" t="n">
         <v>0.01420719769919071</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX10" t="n">
         <v>0.01420719769919071</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY10" t="n">
         <v>0.01420719769919071</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ10" t="n">
         <v>0.01420719769919071</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA10" t="n">
         <v>0.01420719769919071</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB10" t="n">
         <v>0.01420719769919071</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC10" t="n">
         <v>0.01420719769919071</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD10" t="n">
         <v>0.01420745881286854</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BE10" t="n">
         <v>0.01420719769919072</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BF10" t="n">
         <v>0.01420719769919072</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BG10" t="n">
         <v>0.01420719769919072</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BH10" t="n">
         <v>0.01420719769919072</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BI10" t="n">
         <v>0.01420719769919072</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BJ10" t="n">
         <v>0.01420719769919072</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BK10" t="n">
         <v>0.01420719769919072</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BL10" t="n">
         <v>0.01420719769919072</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BM10" t="n">
         <v>0.01420719769919072</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BN10" t="n">
         <v>0.01420719769919072</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BO10" t="n">
         <v>0.01420719769919073</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BP10" t="n">
         <v>0.01420719769919073</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BQ10" t="n">
         <v>0.01420719769919075</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BR10" t="n">
         <v>0.01420719769919075</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BS10" t="n">
         <v>0.01420719769919075</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BT10" t="n">
         <v>0.01877694103074637</v>
       </c>
-      <c r="BU8" t="inlineStr">
+      <c r="BU10" t="inlineStr">
         <is>
           <t>g__Ruminococcus_C</t>
         </is>
       </c>
-      <c r="BV8" t="inlineStr">
+      <c r="BV10" t="inlineStr">
         <is>
           <t>g__Ruminococcus_C(reject)</t>
         </is>
